--- a/model_koncepcyjny 2.xlsx
+++ b/model_koncepcyjny 2.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-A301-10.CAMPUS.000\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-A301-04\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04727B90-7F07-4AA4-8448-56362FAC4EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{596663BD-BBAB-4213-B0B5-FEF647870805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Encje" sheetId="1" r:id="rId1"/>
-    <sheet name="Związki" sheetId="2" r:id="rId2"/>
-    <sheet name="Atrybuty" sheetId="3" r:id="rId3"/>
-    <sheet name="Dziedziny" sheetId="4" r:id="rId4"/>
+    <sheet name="tabele" sheetId="5" r:id="rId2"/>
+    <sheet name="Związki" sheetId="2" r:id="rId3"/>
+    <sheet name="Atrybuty" sheetId="3" r:id="rId4"/>
+    <sheet name="Dziedziny" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="139">
   <si>
     <t>Encja</t>
   </si>
@@ -389,6 +390,60 @@
   </si>
   <si>
     <t>Słodziwo</t>
+  </si>
+  <si>
+    <t>tabela</t>
+  </si>
+  <si>
+    <t>typ</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>containers</t>
+  </si>
+  <si>
+    <t>cones</t>
+  </si>
+  <si>
+    <t>cups</t>
+  </si>
+  <si>
+    <t>colours</t>
+  </si>
+  <si>
+    <t>Nazwa tabeli podstawowej</t>
+  </si>
+  <si>
+    <t>klucz podstawowy</t>
+  </si>
+  <si>
+    <t>krotność</t>
+  </si>
+  <si>
+    <t>klucz obcy</t>
+  </si>
+  <si>
+    <t>nazwa tabeli związanej</t>
+  </si>
+  <si>
+    <t>reguła usuwania</t>
+  </si>
+  <si>
+    <t>reguła modyfikacji</t>
+  </si>
+  <si>
+    <t>clients</t>
+  </si>
+  <si>
+    <t>workers</t>
+  </si>
+  <si>
+    <t>flavours</t>
   </si>
 </sst>
 </file>
@@ -502,11 +557,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -516,8 +572,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -561,6 +615,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A6EE75A-127E-4184-B354-A587F035AB2E}" name="Tabela1" displayName="Tabela1" ref="A21:G35" totalsRowShown="0">
+  <autoFilter ref="A21:G35" xr:uid="{9A6EE75A-127E-4184-B354-A587F035AB2E}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{7C240961-7510-429E-ABE6-ADDBD6DCB226}" name="Nazwa tabeli podstawowej"/>
+    <tableColumn id="2" xr3:uid="{49515C54-23AA-4E93-A0A2-5A3005A9E262}" name="klucz podstawowy"/>
+    <tableColumn id="3" xr3:uid="{7989C9DD-05D5-459C-8B62-22BFCE9CE6F3}" name="krotność"/>
+    <tableColumn id="4" xr3:uid="{59908C15-5561-4285-8011-AC88A69EE8F9}" name="nazwa tabeli związanej"/>
+    <tableColumn id="5" xr3:uid="{CA628521-5ECC-4BD0-A4CE-D5968E9CCC6E}" name="klucz obcy"/>
+    <tableColumn id="6" xr3:uid="{106AA520-E1B7-4CD4-9B0F-5C8C9DB70862}" name="reguła usuwania"/>
+    <tableColumn id="7" xr3:uid="{57CA5026-A518-4F45-8A31-543615A3461F}" name="reguła modyfikacji"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -853,7 +923,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection sqref="A1:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,20 +991,123 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B947CC4-981E-420A-BB34-433401CDC95E}">
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1104,13 +1277,13 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D12" t="s">
@@ -1118,13 +1291,13 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D13" t="s">
@@ -1132,13 +1305,13 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D14" t="s">
@@ -1146,13 +1319,13 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D15" t="s">
@@ -1160,31 +1333,73 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" t="s">
+        <v>134</v>
+      </c>
+      <c r="G21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1200,6 +1415,9 @@
     <oddHeader>&amp;A</oddHeader>
     <oddFooter>Przygotował(a) Katarzyna Wójcik &amp;D&amp;RStrona &amp;P</oddFooter>
   </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -1215,12 +1433,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+    <sheetView topLeftCell="A70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O82" sqref="O82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1235,14 +1453,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="7"/>
       <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1376,13 +1594,13 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="3" t="s">
         <v>48</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1393,13 +1611,13 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1410,14 +1628,14 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -1512,13 +1730,13 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E16" t="s">
@@ -1529,14 +1747,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -1631,14 +1849,14 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -1731,14 +1949,14 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="7"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -1831,14 +2049,14 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="7"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
@@ -1933,13 +2151,13 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="3" t="s">
         <v>84</v>
       </c>
       <c r="E52" s="1" t="s">
@@ -1953,14 +2171,14 @@
       <c r="C53" s="1"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="7"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
@@ -2055,13 +2273,13 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E61" s="1" t="s">
@@ -2072,13 +2290,13 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="3" t="s">
         <v>93</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="3" t="s">
         <v>95</v>
       </c>
       <c r="E62" s="1" t="s">
@@ -2089,13 +2307,13 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="3" t="s">
         <v>97</v>
       </c>
       <c r="E63" s="1" t="s">
@@ -2106,14 +2324,14 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="7"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
@@ -2208,13 +2426,13 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="3" t="s">
         <v>101</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D72" s="3" t="s">
         <v>107</v>
       </c>
       <c r="E72" s="1" t="s">
@@ -2225,13 +2443,13 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="3" t="s">
         <v>102</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="3" t="s">
         <v>108</v>
       </c>
       <c r="E73" s="1" t="s">
@@ -2242,13 +2460,13 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D74" s="3" t="s">
         <v>105</v>
       </c>
       <c r="E74" s="1" t="s">
@@ -2259,13 +2477,13 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="7" t="s">
+      <c r="A75" s="3" t="s">
         <v>104</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D75" s="3" t="s">
         <v>97</v>
       </c>
       <c r="E75" s="1" t="s">
@@ -2276,14 +2494,14 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="6"/>
+      <c r="A78" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="7"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
@@ -2378,13 +2596,13 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="7" t="s">
+      <c r="A84" s="3" t="s">
         <v>120</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D84" s="7" t="s">
+      <c r="D84" s="3" t="s">
         <v>118</v>
       </c>
       <c r="E84" s="1" t="s">
@@ -2395,37 +2613,37 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="7"/>
+      <c r="A85" s="3"/>
       <c r="C85" s="1"/>
-      <c r="D85" s="7"/>
+      <c r="D85" s="3"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="7"/>
+      <c r="A86" s="3"/>
       <c r="C86" s="1"/>
-      <c r="D86" s="7"/>
+      <c r="D86" s="3"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="7"/>
+      <c r="A87" s="3"/>
       <c r="C87" s="1"/>
-      <c r="D87" s="7"/>
+      <c r="D87" s="3"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A28:F28"/>
     <mergeCell ref="A55:F55"/>
     <mergeCell ref="A66:F66"/>
     <mergeCell ref="A78:F78"/>
     <mergeCell ref="A37:F37"/>
     <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A28:F28"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C8 C12:C17 C21:C26 C30:C34 C39:C44 C48:C53 C57:C63 C68:C75 C80:C87" xr:uid="{438401A8-C4CD-4BD7-BE1B-9C51036FE13A}">
@@ -2444,12 +2662,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2559,84 +2777,84 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="3">
         <v>11</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="3">
         <v>30</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="3">
         <v>255</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="3">
         <v>14</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="3">
         <v>30</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="3">
         <v>30</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
         <v>119</v>
       </c>
     </row>
